--- a/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t>土地坐落</t>
   </si>
@@ -197,6 +197,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>永光</t>
   </si>
   <si>
@@ -204,6 +213,9 @@
   </si>
   <si>
     <t>麗嬰房</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1229,13 +1241,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1254,13 +1266,22 @@
       <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1277,13 +1298,22 @@
       <c r="G2" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1300,13 +1330,22 @@
       <c r="G3" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1322,6 +1361,15 @@
       </c>
       <c r="G4" s="2">
         <v>50000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1719</v>
       </c>
     </row>
   </sheetData>
@@ -1342,19 +1390,19 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1362,22 +1410,22 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>1018741</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>土地坐落</t>
   </si>
@@ -197,6 +197,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -213,6 +216,9 @@
   </si>
   <si>
     <t>麗嬰房</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-20</t>
@@ -1241,13 +1247,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1275,13 +1281,16 @@
       <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1299,21 +1308,24 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1719</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1331,21 +1343,24 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1719</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1363,12 +1378,15 @@
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1719</v>
       </c>
     </row>
@@ -1390,19 +1408,19 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1410,22 +1428,22 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>1018741</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
   <si>
     <t>土地坐落</t>
   </si>
@@ -200,6 +200,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -209,6 +212,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>永光</t>
   </si>
   <si>
@@ -221,7 +230,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmp1fff1</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1247,13 +1262,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1284,13 +1299,22 @@
       <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1308,24 +1332,33 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1719</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -1343,24 +1376,33 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1719</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1378,16 +1420,25 @@
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1719</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1408,19 +1459,19 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1428,22 +1479,22 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>1018741</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
@@ -18,18 +18,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="84">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段04890055地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段04890059地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03210003地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03210013地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03210019地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03210020地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03210023地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03230001地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03230020地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03230023地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段03230024地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段16000000地號</t>
+  </si>
+  <si>
+    <t>雲林縣土庫鎮馬公厝段16390001地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>6分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>2744分之1159</t>
+  </si>
+  <si>
+    <t>張嘉郡</t>
+  </si>
+  <si>
+    <t>林家宏</t>
+  </si>
+  <si>
+    <t>95年05月05日</t>
+  </si>
+  <si>
+    <t>94年05月06日</t>
+  </si>
+  <si>
+    <t>91年03月22日</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmp1fff1</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -41,97 +170,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>雲林縣土庫鎮馬公厝段 0489-0055 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0489-0059 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0321-0003 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0321-0013 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0321-0019 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0321-0020 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0321-0023 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0323-0001 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0323-0020 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0323-0023 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 0323-0024 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 1600-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣土庫鎮馬公厝段 1639-0001 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>6分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>2744分之 1159</t>
-  </si>
-  <si>
-    <t>張嘉郡</t>
-  </si>
-  <si>
-    <t>林家宏</t>
-  </si>
-  <si>
-    <t>95年05月 05日</t>
-  </si>
-  <si>
-    <t>94年05月 06日</t>
-  </si>
-  <si>
-    <t>91年03月 22日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>LEXUS-RX350</t>
-  </si>
-  <si>
-    <t>100 年 04 月08曰</t>
+    <t>LEXUSRX350</t>
+  </si>
+  <si>
+    <t>100年04月08曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -149,22 +191,22 @@
     <t>臺灣土地銀行虎尾分行</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行虎尾分 行</t>
+    <t>臺灣中小企業銀行虎尾分行</t>
   </si>
   <si>
     <t>臺灣銀行信義分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行嘉義分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行竹科分 行</t>
+    <t>台新國際商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行竹科分行</t>
   </si>
   <si>
     <t>合作金庫商業銀行營業部</t>
   </si>
   <si>
-    <t>合作金庫商業銀行虎尾分 行</t>
+    <t>合作金庫商業銀行虎尾分行</t>
   </si>
   <si>
     <t>虎尾郵局（第17支局）</t>
@@ -179,12 +221,6 @@
     <t>林〇融</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -197,27 +233,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>永光</t>
   </si>
   <si>
@@ -230,15 +245,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-20</t>
-  </si>
-  <si>
-    <t>tmp1fff1</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -257,10 +263,10 @@
     <t>擔保借款</t>
   </si>
   <si>
-    <t>台新銀行苓雅分行 高雄市前鎮區中山二路</t>
-  </si>
-  <si>
-    <t>100年04月 08日</t>
+    <t>台新銀行苓雅分行高雄市前鎮區中山二路</t>
+  </si>
+  <si>
+    <t>100年04月08日</t>
   </si>
   <si>
     <t>購車</t>
@@ -622,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,343 +656,637 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2">
         <v>8000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>78.75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2">
         <v>252000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>43.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2">
         <v>122724</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>53.16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2">
         <v>148848</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2">
         <v>263500</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2">
         <v>182900</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2">
         <v>12400</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>139</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2">
         <v>430900</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2">
         <v>481600</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>182</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2">
         <v>509600</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>0.83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2">
         <v>2324</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1158.98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2">
         <v>1043082</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>2734</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2">
         <v>4921200</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1004,22 +1304,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1027,19 +1327,19 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>2400000</v>
@@ -1060,19 +1360,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1080,16 +1380,16 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>4320708</v>
@@ -1100,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>3079</v>
@@ -1120,16 +1420,16 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>55417</v>
@@ -1140,16 +1440,16 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>421096</v>
@@ -1160,16 +1460,16 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>1792989</v>
@@ -1180,16 +1480,16 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>3281451</v>
@@ -1200,16 +1500,16 @@
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>966598</v>
@@ -1220,16 +1520,16 @@
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2">
         <v>1986112</v>
@@ -1240,16 +1540,16 @@
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
         <v>2245600</v>
@@ -1270,43 +1570,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1314,10 +1614,10 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>5000</v>
@@ -1326,28 +1626,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2">
         <v>1719</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2">
         <v>71</v>
@@ -1358,10 +1658,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>15000</v>
@@ -1370,28 +1670,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2">
         <v>1719</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2">
         <v>72</v>
@@ -1402,10 +1702,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>5000</v>
@@ -1414,28 +1714,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2">
         <v>1719</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="N4" s="2">
         <v>73</v>
@@ -1456,22 +1756,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1479,22 +1779,22 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>1018741</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>雲林縣土庫鎮馬公厝段04890055地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>雲林縣土庫鎮馬公厝段04890059地號</t>
@@ -152,45 +155,21 @@
     <t>tmp1fff1</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>LEXUSRX350</t>
   </si>
   <si>
     <t>100年04月08曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣土地銀行虎尾分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣中小企業銀行虎尾分行</t>
   </si>
   <si>
@@ -212,12 +191,6 @@
     <t>虎尾郵局（第17支局）</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>林〇融</t>
   </si>
   <si>
@@ -230,12 +203,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>永光</t>
-  </si>
-  <si>
     <t>勝華</t>
   </si>
   <si>
@@ -243,21 +210,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>擔保借款</t>
@@ -628,13 +580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,257 +629,293 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2.5</v>
+        <v>78.75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2">
-        <v>8000</v>
+        <v>252000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>1719</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>19.6875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43.83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2">
+        <v>122724</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>78.75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2">
-        <v>252000</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>1719</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>7.305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>53.16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2">
+        <v>148848</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43.83</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2">
-        <v>122724</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>1719</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2">
+        <v>263500</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>53.16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2">
-        <v>148848</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>1719</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2">
+        <v>182900</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2">
-        <v>263500</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2">
         <v>1719</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>35</v>
@@ -936,357 +924,352 @@
         <v>39</v>
       </c>
       <c r="H7" s="2">
-        <v>182900</v>
+        <v>12400</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2">
         <v>1719</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>139</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2">
+        <v>430900</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="2">
-        <v>12400</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="2">
         <v>1719</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>172</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2">
+        <v>481600</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>139</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="2">
-        <v>430900</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2">
         <v>1719</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2">
-        <v>481600</v>
+        <v>509600</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2">
         <v>1719</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>182</v>
+        <v>0.83</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2">
-        <v>509600</v>
+        <v>2324</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="2">
         <v>1719</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.138333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1158.98</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1043082</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2324</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12" s="2">
         <v>1719</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.422376093294461</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>489.525444606414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>1158.98</v>
+        <v>2734</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2">
-        <v>1043082</v>
+        <v>4921200</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M13" s="2">
         <v>1719</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
         <v>2734</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4921200</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1719</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1296,52 +1279,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C1" s="1">
+        <v>3456</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3456</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G1" s="1">
         <v>2400000</v>
       </c>
     </row>
@@ -1352,7 +1312,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1360,198 +1320,178 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4320708</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
-        <v>4320708</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
-        <v>3079</v>
+        <v>55417</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
-        <v>55417</v>
+        <v>421096</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
-        <v>421096</v>
+        <v>1792989</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
-        <v>1792989</v>
+        <v>3281451</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2">
-        <v>3281451</v>
+        <v>966598</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2">
-        <v>966598</v>
+        <v>1986112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>1986112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>62</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2">
         <v>2245600</v>
       </c>
     </row>
@@ -1562,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1576,16 +1516,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1611,133 +1551,89 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2">
         <v>1719</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2">
         <v>1719</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1719</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="2">
         <v>73</v>
       </c>
     </row>
@@ -1748,53 +1644,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1018741</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>106</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1018741</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>雲林縣土庫鎮馬公厝段04890055地號</t>
+  </si>
+  <si>
     <t>雲林縣土庫鎮馬公厝段04890059地號</t>
   </si>
   <si>
@@ -201,6 +204,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>永光</t>
   </si>
   <si>
     <t>勝華</t>
@@ -580,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -638,66 +644,66 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>78.75</v>
+        <v>2.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2">
-        <v>252000</v>
+        <v>8000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2">
         <v>1719</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.25</v>
       </c>
       <c r="Q2" s="2">
-        <v>19.6875</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>43.83</v>
+        <v>78.75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -712,157 +718,157 @@
         <v>38</v>
       </c>
       <c r="H3" s="2">
-        <v>122724</v>
+        <v>252000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2">
         <v>1719</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="Q3" s="2">
-        <v>7.305</v>
+        <v>19.6875</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>53.16</v>
+        <v>43.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2">
-        <v>148848</v>
+        <v>122724</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2">
         <v>1719</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.166666666666667</v>
       </c>
       <c r="Q4" s="2">
-        <v>8.86</v>
+        <v>7.305</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>85</v>
+        <v>53.16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="2">
-        <v>263500</v>
+        <v>148848</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2">
         <v>1719</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q5" s="2">
-        <v>85</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
@@ -871,157 +877,157 @@
         <v>40</v>
       </c>
       <c r="H6" s="2">
-        <v>182900</v>
+        <v>263500</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2">
         <v>1719</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2">
-        <v>12400</v>
+        <v>182900</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="2">
         <v>1719</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
-        <v>430900</v>
+        <v>12400</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8" s="2">
         <v>1719</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>36</v>
@@ -1030,245 +1036,298 @@
         <v>40</v>
       </c>
       <c r="H9" s="2">
-        <v>481600</v>
+        <v>430900</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9" s="2">
         <v>1719</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2">
-        <v>509600</v>
+        <v>481600</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10" s="2">
         <v>1719</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>0.83</v>
+        <v>182</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2">
-        <v>2324</v>
+        <v>509600</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M11" s="2">
         <v>1719</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.138333333333333</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1158.98</v>
+        <v>0.83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2">
-        <v>1043082</v>
+        <v>2324</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="2">
         <v>1719</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.422376093294461</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q12" s="2">
-        <v>489.525444606414</v>
+        <v>0.138333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>2734</v>
+        <v>1158.98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2">
-        <v>4921200</v>
+        <v>1043082</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M13" s="2">
         <v>1719</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.422376093294461</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>489.525444606414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2734</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4921200</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="2">
+      <c r="L14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1719</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="2">
         <v>26</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P14" s="2">
         <v>1</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q14" s="2">
         <v>2734</v>
       </c>
     </row>
@@ -1279,29 +1338,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1">
         <v>3456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="C2" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2">
         <v>2400000</v>
       </c>
     </row>
@@ -1312,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1320,16 +1402,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1">
         <v>4320708</v>
@@ -1337,161 +1419,181 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2">
-        <v>3079</v>
+        <v>4320708</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
-        <v>55417</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2">
-        <v>421096</v>
+        <v>55417</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="2">
-        <v>1792989</v>
+        <v>421096</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
-        <v>3281451</v>
+        <v>1792989</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2">
-        <v>966598</v>
+        <v>3281451</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2">
-        <v>1986112</v>
+        <v>966598</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1986112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>62</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2">
         <v>2245600</v>
       </c>
     </row>
@@ -1502,7 +1604,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1516,13 +1618,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1551,89 +1653,133 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2">
         <v>1719</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2">
         <v>1719</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="2">
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1719</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="2">
         <v>73</v>
       </c>
     </row>
@@ -1644,30 +1790,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1">
         <v>1018741</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1018741</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>tmp1fff1</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>LEXUSRX350</t>
@@ -1338,38 +1341,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1">
-        <v>3456</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
@@ -1378,13 +1402,34 @@
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>2400000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1719</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1402,13 +1447,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
@@ -1422,13 +1467,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -1442,13 +1487,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -1462,13 +1507,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -1482,13 +1527,13 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -1502,13 +1547,13 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -1522,13 +1567,13 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -1542,13 +1587,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -1562,16 +1607,16 @@
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2">
         <v>1986112</v>
@@ -1582,13 +1627,13 @@
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
@@ -1618,13 +1663,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1656,7 +1701,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -1668,13 +1713,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -1700,7 +1745,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -1712,13 +1757,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -1744,7 +1789,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -1756,13 +1801,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -1798,22 +1843,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1">
         <v>1018741</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1821,22 +1866,22 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>1018741</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>100年04月08曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣土地銀行虎尾分行</t>
@@ -1411,7 +1414,7 @@
         <v>2400000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -1447,13 +1450,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
@@ -1467,13 +1470,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -1487,13 +1490,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -1507,13 +1510,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -1527,13 +1530,13 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -1547,13 +1550,13 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -1567,13 +1570,13 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -1587,13 +1590,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -1607,16 +1610,16 @@
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2">
         <v>1986112</v>
@@ -1627,13 +1630,13 @@
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
@@ -1663,13 +1666,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1701,7 +1704,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -1713,13 +1716,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -1745,7 +1748,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -1757,13 +1760,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -1789,7 +1792,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -1801,13 +1804,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -1843,22 +1846,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>1018741</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1866,22 +1869,22 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>1018741</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -170,46 +170,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣土地銀行虎尾分行</t>
   </si>
   <si>
+    <t>臺灣中小企業銀行虎尾分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行信義分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行竹科分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行虎尾分行</t>
+  </si>
+  <si>
+    <t>虎尾郵局（第17支局）</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行虎尾分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行信義分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行竹科分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行虎尾分行</t>
-  </si>
-  <si>
-    <t>虎尾郵局（第17支局）</t>
-  </si>
-  <si>
     <t>林〇融</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>永光</t>
@@ -1442,13 +1451,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1459,24 +1468,45 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4320708</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -1484,19 +1514,40 @@
       <c r="F2" s="2">
         <v>4320708</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -1504,19 +1555,40 @@
       <c r="F3" s="2">
         <v>3079</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -1524,19 +1596,40 @@
       <c r="F4" s="2">
         <v>55417</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -1544,19 +1637,40 @@
       <c r="F5" s="2">
         <v>421096</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -1564,19 +1678,40 @@
       <c r="F6" s="2">
         <v>1792989</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -1584,19 +1719,40 @@
       <c r="F7" s="2">
         <v>3281451</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -1604,45 +1760,108 @@
       <c r="F8" s="2">
         <v>966598</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2">
         <v>1986112</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>2245600</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1666,13 +1885,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1704,7 +1923,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -1716,13 +1935,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -1748,7 +1967,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -1760,13 +1979,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -1792,7 +2011,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -1804,13 +2023,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2">
         <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -1846,22 +2065,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>1018741</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1869,22 +2088,22 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>1018741</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
+++ b/legislator/property/output/normal/張嘉郡_2012-04-20_財產申報表_tmp1fff1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -233,6 +233,12 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>擔保借款</t>
   </si>
   <si>
@@ -243,6 +249,9 @@
   </si>
   <si>
     <t>購車</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2057,53 +2066,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1018741</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>1018741</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1719</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
